--- a/result/MILP_result/MILP-QR1-PCR.xlsx
+++ b/result/MILP_result/MILP-QR1-PCR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文件\QAP\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\test\result\MILP_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A758DF-064E-4343-B8A9-72798F87E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB00737-2DF2-4825-9755-D5D4B8D681CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="0" windowWidth="24105" windowHeight="12885" xr2:uid="{FE8C0875-6034-43A5-A432-890D389D6073}"/>
+    <workbookView xWindow="1440" yWindow="1545" windowWidth="24105" windowHeight="12885" xr2:uid="{FE8C0875-6034-43A5-A432-890D389D6073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>test</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>QR1-600-PCR-L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2439128665</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +698,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,8 +1552,8 @@
         <v>986.01700000000005</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="3">
-        <v>2439128665</v>
+      <c r="K20" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="L20" s="2">
         <v>3162.57</v>
